--- a/To-Do List.xlsx
+++ b/To-Do List.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liam\Videos\epic website\Collab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2387FC10-CE1C-4AC9-B985-2CC262533637}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7470"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>TASK</t>
   </si>
@@ -82,12 +81,15 @@
   </si>
   <si>
     <t>✓</t>
+  </si>
+  <si>
+    <t>make movement left to right automatic on hold down</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -529,11 +531,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,7 +666,9 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="B17" s="6"/>
       <c r="C17" s="9"/>
     </row>

--- a/To-Do List.xlsx
+++ b/To-Do List.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liam\Videos\epic website\Collab2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua\Documents\GameMaker\Projects\bloxoturbo02.gmx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9BA72092-0ADC-4669-A900-4C8E5D71333E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7470"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>TASK</t>
   </si>
@@ -84,12 +85,18 @@
   </si>
   <si>
     <t>make movement left to right automatic on hold down</t>
+  </si>
+  <si>
+    <t>alternate wasd controls</t>
+  </si>
+  <si>
+    <t>tetris style "hold" option</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -531,11 +538,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,16 +676,24 @@
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="9"/>
+      <c r="B17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="11">
+        <v>43345</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="B18" s="6"/>
       <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B19" s="6"/>
       <c r="C19" s="9"/>
     </row>

--- a/To-Do List.xlsx
+++ b/To-Do List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua\Documents\GameMaker\Projects\bloxoturbo02.gmx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9BA72092-0ADC-4669-A900-4C8E5D71333E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1F916C70-E6FD-4BC6-BF28-B50F9BE2D25D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>TASK</t>
   </si>
@@ -542,7 +542,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,8 +644,12 @@
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="9"/>
+      <c r="B13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="11">
+        <v>43346</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -687,15 +691,23 @@
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="9"/>
+      <c r="B18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="11">
+        <v>43346</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="9"/>
+      <c r="B19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="11">
+        <v>43346</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>

--- a/To-Do List.xlsx
+++ b/To-Do List.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua\Documents\GameMaker\Projects\bloxoturbo02.gmx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liam\Videos\epic website\Collab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1F916C70-E6FD-4BC6-BF28-B50F9BE2D25D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7470"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>TASK</t>
   </si>
@@ -91,12 +90,21 @@
   </si>
   <si>
     <t>tetris style "hold" option</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Music randomiser</t>
+  </si>
+  <si>
+    <t>Pause Menu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -106,7 +114,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,8 +145,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -195,37 +209,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -237,14 +220,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -253,12 +232,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,11 +519,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,10 +537,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -567,87 +548,93 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="9"/>
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="9"/>
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="9"/>
+      <c r="B4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="9"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="9"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="9"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="9"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="9"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="9"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="9"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="8">
         <v>43346</v>
       </c>
     </row>
@@ -655,24 +642,28 @@
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="9"/>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="9"/>
+      <c r="B15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="8">
         <v>43345</v>
       </c>
     </row>
@@ -680,10 +671,10 @@
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="8">
         <v>43345</v>
       </c>
     </row>
@@ -691,10 +682,10 @@
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="8">
         <v>43346</v>
       </c>
     </row>
@@ -702,17 +693,26 @@
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="8">
         <v>43346</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="10"/>
+      <c r="A20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/To-Do List.xlsx
+++ b/To-Do List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liam\Videos\epic website\Collab2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshu\Documents\GameMaker\Projects\bloxoturbo02.gmx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -523,7 +523,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/To-Do List.xlsx
+++ b/To-Do List.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshu\Documents\GameMaker\Projects\bloxoturbo02.gmx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9589709A-7F59-49AC-8C91-865B5582181D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7470"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,7 +105,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -519,11 +520,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +550,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C2" s="7"/>
     </row>

--- a/To-Do List.xlsx
+++ b/To-Do List.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshu\Documents\GameMaker\Projects\bloxoturbo02.gmx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshu\Documents\GitHub\Collab2.gmx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9589709A-7F59-49AC-8C91-865B5582181D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDE648B-D8C5-4715-9A3B-D177694551D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>TASK</t>
   </si>
@@ -524,7 +524,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,7 +552,9 @@
       <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="8">
+        <v>43355</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -618,7 +620,9 @@
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">

--- a/To-Do List.xlsx
+++ b/To-Do List.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshu\Documents\GitHub\Collab2.gmx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liam\Videos\epic website\Collab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDE648B-D8C5-4715-9A3B-D177694551D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7470"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>TASK</t>
   </si>
@@ -42,9 +41,6 @@
     <t>working menus</t>
   </si>
   <si>
-    <t>levels game mode</t>
-  </si>
-  <si>
     <t>better graphics</t>
   </si>
   <si>
@@ -100,12 +96,45 @@
   </si>
   <si>
     <t>Pause Menu</t>
+  </si>
+  <si>
+    <t>Completed?</t>
+  </si>
+  <si>
+    <t>Date completed</t>
+  </si>
+  <si>
+    <t>Later to Do Tasks</t>
+  </si>
+  <si>
+    <t>advanced room animations</t>
+  </si>
+  <si>
+    <t>advanced graphics work</t>
+  </si>
+  <si>
+    <t>intro video</t>
+  </si>
+  <si>
+    <t>end screen transition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">single player campaign </t>
+  </si>
+  <si>
+    <t>trailer</t>
+  </si>
+  <si>
+    <t>options menu</t>
+  </si>
+  <si>
+    <t>signatures</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -115,7 +144,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +178,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -214,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -241,6 +276,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,11 +562,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -550,7 +592,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="8">
         <v>43355</v>
@@ -561,7 +603,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="7"/>
     </row>
@@ -570,74 +612,80 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="8">
+        <v>43356</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="8">
+        <v>43356</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="8">
         <v>43346</v>
@@ -645,28 +693,26 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B15" s="5"/>
       <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="C16" s="8">
         <v>43345</v>
@@ -674,10 +720,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="8">
         <v>43345</v>
@@ -685,10 +731,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="8">
         <v>43346</v>
@@ -696,10 +742,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="8">
         <v>43346</v>
@@ -707,17 +753,107 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="7"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="10"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/To-Do List.xlsx
+++ b/To-Do List.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liam\Videos\epic website\Collab2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshu\Documents\GameMaker\Projects\bloxoturbo02.gmx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E51FB5-BC44-46C6-A90C-C9A712945D9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7470"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>TASK</t>
   </si>
@@ -134,7 +135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -272,9 +273,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -282,6 +280,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,11 +563,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,101 +760,105 @@
       <c r="C20" s="7"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="10"/>
+      <c r="B21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="16">
+        <v>43361</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="13"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="13"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="14"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/To-Do List.xlsx
+++ b/To-Do List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshu\Documents\GameMaker\Projects\bloxoturbo02.gmx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E51FB5-BC44-46C6-A90C-C9A712945D9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F04C60-A8BA-4D79-AB07-D8BB88C6BCBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>TASK</t>
   </si>
@@ -567,7 +567,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,7 +678,9 @@
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
